--- a/_CLUSTER/groups_time_area/PCA_time/groups_counts_area5_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/PCA_time/groups_counts_area5_Pg.xlsx
@@ -373,7 +373,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -381,15 +381,15 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
         <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
